--- a/Project Wing/Model/Model.xlsx
+++ b/Project Wing/Model/Model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22105"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kloniphani Maluleke\Projects\Exocoetidae\Project Wing\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053BB0C4-2545-4319-A3DD-FCCB17AA902C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D857C2A8-AFD1-4485-9C70-560D406590AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4200" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13290" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TABLE" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1643,7 +1644,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$ZAR]\ #,##0.00"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2061,49 +2062,40 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2121,34 +2113,43 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -16259,26 +16260,26 @@
       <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="16" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" customWidth="1"/>
+    <col min="21" max="21" width="16.6640625" customWidth="1"/>
     <col min="22" max="22" width="9" customWidth="1"/>
-    <col min="23" max="23" width="81.28515625" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" customWidth="1"/>
-    <col min="25" max="25" width="11.5703125" customWidth="1"/>
+    <col min="23" max="23" width="81.33203125" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" customWidth="1"/>
+    <col min="25" max="25" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -16295,7 +16296,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5000</v>
       </c>
@@ -16313,7 +16314,7 @@
         <v>4.7665550595238093</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D3">
         <v>12902.4</v>
       </c>
@@ -16322,30 +16323,30 @@
         <v>1.5888516865079365</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.75" thickBot="1"/>
-    <row r="8" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A8" s="68" t="s">
+    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="69"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="70"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="67"/>
       <c r="U8" s="16" t="s">
         <v>77</v>
       </c>
@@ -16362,9 +16363,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A9" s="71"/>
-      <c r="B9" s="72"/>
+    <row r="9" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="2"/>
       <c r="D9" s="4" t="s">
         <v>6</v>
@@ -16421,11 +16422,11 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A10" s="66" t="s">
+    <row r="10" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="67"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
@@ -16482,11 +16483,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="90" thickBot="1">
-      <c r="A11" s="66" t="s">
+    <row r="11" spans="1:25" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="67"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
@@ -16545,11 +16546,11 @@
         <v>12902.4</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A12" s="66" t="s">
+    <row r="12" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="67"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="11" t="s">
         <v>21</v>
       </c>
@@ -16608,11 +16609,11 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A13" s="66" t="s">
+    <row r="13" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="67"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="12" t="s">
         <v>22</v>
       </c>
@@ -16671,37 +16672,37 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A14" s="66" t="s">
+    <row r="14" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="67"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="63">
         <v>50</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73">
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63">
         <v>100</v>
       </c>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73">
+      <c r="J14" s="63"/>
+      <c r="K14" s="63">
         <v>50</v>
       </c>
-      <c r="L14" s="73"/>
+      <c r="L14" s="63"/>
       <c r="M14" s="29">
         <v>100</v>
       </c>
-      <c r="N14" s="73">
+      <c r="N14" s="63">
         <v>10</v>
       </c>
-      <c r="O14" s="73"/>
-      <c r="P14" s="82"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="64"/>
       <c r="U14" s="19" t="s">
         <v>108</v>
       </c>
@@ -16711,16 +16712,16 @@
       <c r="W14" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="X14" s="78">
+      <c r="X14" s="53">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Y14" s="79"/>
-    </row>
-    <row r="15" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A15" s="66" t="s">
+      <c r="Y14" s="54"/>
+    </row>
+    <row r="15" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="61" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="67"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="12" t="s">
         <v>33</v>
       </c>
@@ -16772,41 +16773,41 @@
       <c r="W15" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="X15" s="78">
+      <c r="X15" s="53">
         <v>11.55</v>
       </c>
-      <c r="Y15" s="79"/>
-    </row>
-    <row r="16" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A16" s="66" t="s">
+      <c r="Y15" s="54"/>
+    </row>
+    <row r="16" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="73">
+      <c r="D16" s="63">
         <v>0.5</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73">
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63">
         <v>0.8</v>
       </c>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73">
+      <c r="J16" s="63"/>
+      <c r="K16" s="63">
         <v>0.75</v>
       </c>
-      <c r="L16" s="73"/>
+      <c r="L16" s="63"/>
       <c r="M16" s="29">
         <v>0.8</v>
       </c>
-      <c r="N16" s="73">
+      <c r="N16" s="63">
         <v>0.3</v>
       </c>
-      <c r="O16" s="73"/>
+      <c r="O16" s="63"/>
       <c r="P16" s="30">
         <v>0.4</v>
       </c>
@@ -16826,25 +16827,25 @@
         <v>433</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A17" s="66" t="s">
+    <row r="17" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="67"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="73">
+      <c r="D17" s="63">
         <v>2.89</v>
       </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
       <c r="M17" s="31">
         <v>0</v>
       </c>
@@ -16873,14 +16874,14 @@
         <v>938.2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A18" s="74" t="s">
+    <row r="18" spans="1:25" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="57" t="s">
         <v>117</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="59" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="29">
@@ -16938,12 +16939,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="39" thickBot="1">
-      <c r="A19" s="75"/>
+    <row r="19" spans="1:25" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="58"/>
       <c r="B19" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="77"/>
+      <c r="C19" s="60"/>
       <c r="D19" s="31">
         <v>13.7</v>
       </c>
@@ -16992,17 +16993,17 @@
       <c r="W19" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="X19" s="80"/>
-      <c r="Y19" s="81"/>
-    </row>
-    <row r="20" spans="1:25" ht="26.25" thickBot="1">
-      <c r="A20" s="74" t="s">
+      <c r="X19" s="55"/>
+      <c r="Y19" s="56"/>
+    </row>
+    <row r="20" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="57" t="s">
         <v>120</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="59" t="s">
         <v>36</v>
       </c>
       <c r="D20" s="29">
@@ -17060,12 +17061,12 @@
         <v>7.65</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A21" s="75"/>
+    <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="58"/>
       <c r="B21" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="77"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="31">
         <v>36</v>
       </c>
@@ -17111,14 +17112,14 @@
       <c r="X21" s="26"/>
       <c r="Y21" s="26"/>
     </row>
-    <row r="22" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A22" s="74" t="s">
+    <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="57" t="s">
         <v>122</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="59" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="29">
@@ -17162,12 +17163,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A23" s="75"/>
+    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="58"/>
       <c r="B23" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="77"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="31">
         <v>2540</v>
       </c>
@@ -17208,23 +17209,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A24" s="74" t="s">
+    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="57" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="73">
+      <c r="D24" s="63">
         <v>577.29999999999995</v>
       </c>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
       <c r="I24" s="29">
         <v>173.3</v>
       </c>
@@ -17250,19 +17251,19 @@
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="15.75" thickBot="1">
-      <c r="A25" s="75"/>
+    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="58"/>
       <c r="B25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="73">
+      <c r="C25" s="60"/>
+      <c r="D25" s="63">
         <v>1732</v>
       </c>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
       <c r="I25" s="31">
         <v>519.6</v>
       </c>
@@ -17288,13 +17289,13 @@
         <v>480.8</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="G26" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15.75" thickBot="1"/>
-    <row r="31" spans="1:25" ht="15.75" thickBot="1">
+    <row r="30" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="3" t="s">
         <v>5</v>
       </c>
@@ -17314,7 +17315,7 @@
       <c r="O31" s="27"/>
       <c r="P31" s="28"/>
     </row>
-    <row r="32" spans="1:25" ht="26.25" thickBot="1">
+    <row r="32" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C32" s="2"/>
       <c r="D32" s="4" t="s">
         <v>6</v>
@@ -17356,7 +17357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="3:20" ht="26.25" customHeight="1">
+    <row r="33" spans="3:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>123</v>
       </c>
@@ -17413,7 +17414,7 @@
         <v>39.6</v>
       </c>
     </row>
-    <row r="34" spans="3:20">
+    <row r="34" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>124</v>
       </c>
@@ -17470,84 +17471,84 @@
         <v>153.61500000000001</v>
       </c>
     </row>
-    <row r="35" spans="3:20">
+    <row r="35" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="3:20">
+    <row r="36" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="3:20">
+    <row r="37" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="38" spans="3:20">
+    <row r="38" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="3:20" ht="15.75" thickBot="1"/>
-    <row r="40" spans="3:20" ht="15.75" thickBot="1">
-      <c r="C40" s="60" t="s">
+    <row r="39" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C40" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="D40" s="62"/>
-      <c r="E40" s="58" t="s">
+      <c r="D40" s="75"/>
+      <c r="E40" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="58" t="s">
+      <c r="F40" s="77" t="s">
         <v>160</v>
       </c>
-      <c r="G40" s="58" t="s">
+      <c r="G40" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="H40" s="58" t="s">
+      <c r="H40" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="I40" s="58" t="s">
+      <c r="I40" s="77" t="s">
         <v>194</v>
       </c>
-      <c r="J40" s="58" t="s">
+      <c r="J40" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="K40" s="58" t="s">
+      <c r="K40" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="L40" s="58" t="s">
+      <c r="L40" s="77" t="s">
         <v>204</v>
       </c>
-      <c r="M40" s="54" t="s">
+      <c r="M40" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="N40" s="55"/>
-      <c r="O40" s="54" t="s">
+      <c r="N40" s="80"/>
+      <c r="O40" s="79" t="s">
         <v>232</v>
       </c>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="54" t="s">
+      <c r="P40" s="80"/>
+      <c r="Q40" s="79" t="s">
         <v>252</v>
       </c>
-      <c r="R40" s="55"/>
-      <c r="S40" s="54" t="s">
+      <c r="R40" s="80"/>
+      <c r="S40" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="T40" s="55"/>
-    </row>
-    <row r="41" spans="3:20" ht="20.25" thickBot="1">
-      <c r="C41" s="61"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
+      <c r="T40" s="80"/>
+    </row>
+    <row r="41" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C41" s="70"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="78"/>
+      <c r="K41" s="78"/>
+      <c r="L41" s="78"/>
       <c r="M41" s="49" t="s">
         <v>30</v>
       </c>
@@ -17573,7 +17574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="3:20" ht="15.75" thickBot="1">
+    <row r="42" spans="3:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C42" s="37" t="s">
         <v>5</v>
       </c>
@@ -17602,25 +17603,25 @@
       <c r="L42" s="47" t="s">
         <v>205</v>
       </c>
-      <c r="M42" s="56" t="s">
+      <c r="M42" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="N42" s="57"/>
-      <c r="O42" s="56" t="s">
+      <c r="N42" s="82"/>
+      <c r="O42" s="81" t="s">
         <v>233</v>
       </c>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="56" t="s">
+      <c r="P42" s="82"/>
+      <c r="Q42" s="81" t="s">
         <v>253</v>
       </c>
-      <c r="R42" s="57"/>
-      <c r="S42" s="56" t="s">
+      <c r="R42" s="82"/>
+      <c r="S42" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="T42" s="57"/>
-    </row>
-    <row r="43" spans="3:20" ht="39.75" thickBot="1">
-      <c r="C43" s="61" t="s">
+      <c r="T42" s="82"/>
+    </row>
+    <row r="43" spans="3:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C43" s="70" t="s">
         <v>153</v>
       </c>
       <c r="D43" s="39" t="s">
@@ -17638,16 +17639,16 @@
       <c r="H43" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="I43" s="53" t="s">
+      <c r="I43" s="72" t="s">
         <v>195</v>
       </c>
       <c r="J43" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="K43" s="53">
+      <c r="K43" s="72">
         <v>0.5</v>
       </c>
-      <c r="L43" s="53" t="s">
+      <c r="L43" s="72" t="s">
         <v>206</v>
       </c>
       <c r="M43" s="42" t="s">
@@ -17668,15 +17669,15 @@
       <c r="R43" s="39">
         <v>2117</v>
       </c>
-      <c r="S43" s="53" t="s">
+      <c r="S43" s="72" t="s">
         <v>255</v>
       </c>
-      <c r="T43" s="53" t="s">
+      <c r="T43" s="72" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="3:20" ht="39.75" thickBot="1">
-      <c r="C44" s="61"/>
+    <row r="44" spans="3:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C44" s="70"/>
       <c r="D44" s="39" t="s">
         <v>7</v>
       </c>
@@ -17692,12 +17693,12 @@
       <c r="H44" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="I44" s="53"/>
+      <c r="I44" s="72"/>
       <c r="J44" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
       <c r="M44" s="42" t="s">
         <v>212</v>
       </c>
@@ -17716,11 +17717,11 @@
       <c r="R44" s="39">
         <v>2509</v>
       </c>
-      <c r="S44" s="53"/>
-      <c r="T44" s="53"/>
-    </row>
-    <row r="45" spans="3:20" ht="39.75" thickBot="1">
-      <c r="C45" s="61"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="72"/>
+    </row>
+    <row r="45" spans="3:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C45" s="70"/>
       <c r="D45" s="39" t="s">
         <v>154</v>
       </c>
@@ -17736,12 +17737,12 @@
       <c r="H45" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="I45" s="53"/>
+      <c r="I45" s="72"/>
       <c r="J45" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
       <c r="M45" s="42" t="s">
         <v>213</v>
       </c>
@@ -17760,11 +17761,11 @@
       <c r="R45" s="39">
         <v>1317</v>
       </c>
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-    </row>
-    <row r="46" spans="3:20" ht="39.75" thickBot="1">
-      <c r="C46" s="61"/>
+      <c r="S45" s="72"/>
+      <c r="T45" s="72"/>
+    </row>
+    <row r="46" spans="3:20" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C46" s="70"/>
       <c r="D46" s="39" t="s">
         <v>155</v>
       </c>
@@ -17780,12 +17781,12 @@
       <c r="H46" s="44" t="s">
         <v>186</v>
       </c>
-      <c r="I46" s="53"/>
+      <c r="I46" s="72"/>
       <c r="J46" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
       <c r="M46" s="42" t="s">
         <v>214</v>
       </c>
@@ -17804,11 +17805,11 @@
       <c r="R46" s="39">
         <v>1542</v>
       </c>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-    </row>
-    <row r="47" spans="3:20" ht="39.75" thickBot="1">
-      <c r="C47" s="61"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+    </row>
+    <row r="47" spans="3:20" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C47" s="70"/>
       <c r="D47" s="39" t="s">
         <v>156</v>
       </c>
@@ -17824,12 +17825,12 @@
       <c r="H47" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="I47" s="53"/>
+      <c r="I47" s="72"/>
       <c r="J47" s="48">
         <v>382086</v>
       </c>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
       <c r="M47" s="42" t="s">
         <v>215</v>
       </c>
@@ -17848,11 +17849,11 @@
       <c r="R47" s="39">
         <v>741</v>
       </c>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-    </row>
-    <row r="48" spans="3:20" ht="20.25" thickBot="1">
-      <c r="C48" s="61"/>
+      <c r="S47" s="72"/>
+      <c r="T47" s="72"/>
+    </row>
+    <row r="48" spans="3:20" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="70"/>
       <c r="D48" s="39" t="s">
         <v>8</v>
       </c>
@@ -17868,16 +17869,16 @@
       <c r="H48" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="I48" s="53" t="s">
+      <c r="I48" s="72" t="s">
         <v>196</v>
       </c>
       <c r="J48" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="K48" s="53">
+      <c r="K48" s="72">
         <v>0.8</v>
       </c>
-      <c r="L48" s="53"/>
+      <c r="L48" s="72"/>
       <c r="M48" s="42" t="s">
         <v>216</v>
       </c>
@@ -17903,8 +17904,8 @@
         <v>261</v>
       </c>
     </row>
-    <row r="49" spans="3:20" ht="20.25" thickBot="1">
-      <c r="C49" s="61"/>
+    <row r="49" spans="3:20" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C49" s="70"/>
       <c r="D49" s="39" t="s">
         <v>9</v>
       </c>
@@ -17920,12 +17921,12 @@
       <c r="H49" s="44" t="s">
         <v>189</v>
       </c>
-      <c r="I49" s="53"/>
+      <c r="I49" s="72"/>
       <c r="J49" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="72"/>
       <c r="M49" s="42" t="s">
         <v>217</v>
       </c>
@@ -17951,8 +17952,8 @@
         <v>261</v>
       </c>
     </row>
-    <row r="50" spans="3:20" ht="30" thickBot="1">
-      <c r="C50" s="61"/>
+    <row r="50" spans="3:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C50" s="70"/>
       <c r="D50" s="39" t="s">
         <v>10</v>
       </c>
@@ -17968,16 +17969,16 @@
       <c r="H50" s="44" t="s">
         <v>190</v>
       </c>
-      <c r="I50" s="53" t="s">
+      <c r="I50" s="72" t="s">
         <v>195</v>
       </c>
       <c r="J50" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="K50" s="53">
+      <c r="K50" s="72">
         <v>0.75</v>
       </c>
-      <c r="L50" s="53"/>
+      <c r="L50" s="72"/>
       <c r="M50" s="42" t="s">
         <v>218</v>
       </c>
@@ -18003,8 +18004,8 @@
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="3:20" ht="30" thickBot="1">
-      <c r="C51" s="61"/>
+    <row r="51" spans="3:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C51" s="70"/>
       <c r="D51" s="39" t="s">
         <v>157</v>
       </c>
@@ -18020,12 +18021,12 @@
       <c r="H51" s="44" t="s">
         <v>191</v>
       </c>
-      <c r="I51" s="53"/>
+      <c r="I51" s="72"/>
       <c r="J51" s="48">
         <v>9093</v>
       </c>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="72"/>
       <c r="M51" s="42" t="s">
         <v>219</v>
       </c>
@@ -18051,8 +18052,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="52" spans="3:20" ht="30" thickBot="1">
-      <c r="C52" s="61"/>
+    <row r="52" spans="3:20" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C52" s="70"/>
       <c r="D52" s="39" t="s">
         <v>11</v>
       </c>
@@ -18105,8 +18106,8 @@
         <v>264</v>
       </c>
     </row>
-    <row r="53" spans="3:20" ht="39.75" thickBot="1">
-      <c r="C53" s="61"/>
+    <row r="53" spans="3:20" ht="39" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C53" s="70"/>
       <c r="D53" s="39" t="s">
         <v>12</v>
       </c>
@@ -18122,13 +18123,13 @@
       <c r="H53" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="I53" s="53" t="s">
+      <c r="I53" s="72" t="s">
         <v>197</v>
       </c>
       <c r="J53" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="K53" s="53">
+      <c r="K53" s="72">
         <v>0.3</v>
       </c>
       <c r="L53" s="44" t="s">
@@ -18159,8 +18160,8 @@
         <v>262</v>
       </c>
     </row>
-    <row r="54" spans="3:20" ht="33" thickBot="1">
-      <c r="C54" s="61"/>
+    <row r="54" spans="3:20" ht="33" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C54" s="70"/>
       <c r="D54" s="39" t="s">
         <v>13</v>
       </c>
@@ -18176,11 +18177,11 @@
       <c r="H54" s="44" t="s">
         <v>193</v>
       </c>
-      <c r="I54" s="53"/>
+      <c r="I54" s="72"/>
       <c r="J54" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="K54" s="53"/>
+      <c r="K54" s="72"/>
       <c r="L54" s="44" t="s">
         <v>208</v>
       </c>
@@ -18209,8 +18210,8 @@
         <v>262</v>
       </c>
     </row>
-    <row r="55" spans="3:20" ht="30" thickBot="1">
-      <c r="C55" s="64"/>
+    <row r="55" spans="3:20" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C55" s="71"/>
       <c r="D55" s="40" t="s">
         <v>14</v>
       </c>
@@ -18226,7 +18227,7 @@
       <c r="H55" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="I55" s="65"/>
+      <c r="I55" s="73"/>
       <c r="J55" s="45" t="s">
         <v>202</v>
       </c>
@@ -18263,6 +18264,57 @@
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="S43:S47"/>
+    <mergeCell ref="T43:T47"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="C43:C55"/>
+    <mergeCell ref="I43:I47"/>
+    <mergeCell ref="K43:K47"/>
+    <mergeCell ref="L43:L51"/>
+    <mergeCell ref="I53:I55"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C20:C21"/>
     <mergeCell ref="X14:Y14"/>
     <mergeCell ref="X15:Y15"/>
     <mergeCell ref="X19:Y19"/>
@@ -18275,57 +18327,6 @@
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="N14:P14"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C43:C55"/>
-    <mergeCell ref="I43:I47"/>
-    <mergeCell ref="K43:K47"/>
-    <mergeCell ref="L43:L51"/>
-    <mergeCell ref="I53:I55"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="S40:T40"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="S43:S47"/>
-    <mergeCell ref="T43:T47"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="K50:K51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18337,19 +18338,19 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T128" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AB146" sqref="AB146"/>
+    <sheetView tabSelected="1" topLeftCell="F16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J31" sqref="J30:J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="4" max="16" width="22.7109375" customWidth="1"/>
-    <col min="19" max="19" width="23.7109375" customWidth="1"/>
-    <col min="21" max="21" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.88671875" customWidth="1"/>
+    <col min="4" max="16" width="22.6640625" customWidth="1"/>
+    <col min="19" max="19" width="23.6640625" customWidth="1"/>
+    <col min="21" max="21" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>152</v>
       </c>
@@ -18378,7 +18379,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>6</v>
       </c>
@@ -18437,7 +18438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -18499,7 +18500,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -18564,7 +18565,7 @@
         <v>67200</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -18629,7 +18630,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -18694,7 +18695,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -18754,7 +18755,7 @@
       </c>
       <c r="W7" s="33"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -18814,7 +18815,7 @@
       </c>
       <c r="W8" s="33"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -18879,7 +18880,7 @@
         <v>144.4</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -18944,7 +18945,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -19009,7 +19010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>31</v>
       </c>
@@ -19064,7 +19065,7 @@
       <c r="V12" s="33"/>
       <c r="W12" s="33"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>266</v>
       </c>
@@ -19110,7 +19111,7 @@
       <c r="V13" s="33"/>
       <c r="W13" s="33"/>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -19178,7 +19179,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>31</v>
       </c>
@@ -19225,7 +19226,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>266</v>
       </c>
@@ -19278,7 +19279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>268</v>
       </c>
@@ -19341,7 +19342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>31</v>
       </c>
@@ -19398,7 +19399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>266</v>
       </c>
@@ -19455,7 +19456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>269</v>
       </c>
@@ -19518,7 +19519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>31</v>
       </c>
@@ -19575,7 +19576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>266</v>
       </c>
@@ -19632,7 +19633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -19682,7 +19683,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>31</v>
       </c>
@@ -19726,7 +19727,7 @@
         <v>480.8</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>266</v>
       </c>
@@ -19770,7 +19771,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -19778,25 +19779,25 @@
         <v>141</v>
       </c>
       <c r="D26">
-        <v>1.4</v>
+        <v>0.85</v>
       </c>
       <c r="E26">
-        <v>1.4</v>
+        <v>0.85</v>
       </c>
       <c r="F26">
-        <v>1.4</v>
+        <v>0.85</v>
       </c>
       <c r="G26">
-        <v>1.4</v>
+        <v>0.85</v>
       </c>
       <c r="H26">
-        <v>1.4</v>
+        <v>0.85</v>
       </c>
       <c r="I26">
-        <v>4.4000000000000004</v>
+        <v>3.4</v>
       </c>
       <c r="J26">
-        <v>4.4000000000000004</v>
+        <v>3.4</v>
       </c>
       <c r="K26">
         <v>2.1</v>
@@ -19817,7 +19818,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>6</v>
       </c>
@@ -19858,7 +19859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="3:16">
+    <row r="33" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>135</v>
       </c>
@@ -19915,7 +19916,7 @@
         <v>77.000000000000014</v>
       </c>
     </row>
-    <row r="34" spans="3:16">
+    <row r="34" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>136</v>
       </c>
@@ -19972,7 +19973,7 @@
         <v>121.27500000000001</v>
       </c>
     </row>
-    <row r="35" spans="3:16">
+    <row r="35" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>125</v>
       </c>
@@ -20029,7 +20030,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="36" spans="3:16">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>126</v>
       </c>
@@ -20086,7 +20087,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="37" spans="3:16">
+    <row r="37" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>127</v>
       </c>
@@ -20143,7 +20144,7 @@
         <v>310.5</v>
       </c>
     </row>
-    <row r="38" spans="3:16">
+    <row r="38" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>128</v>
       </c>
@@ -20200,7 +20201,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="39" spans="3:16">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>140</v>
       </c>
@@ -20257,7 +20258,7 @@
         <v>2552.7750000000001</v>
       </c>
     </row>
-    <row r="43" spans="3:16">
+    <row r="43" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>6</v>
       </c>
@@ -20298,7 +20299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="3:16">
+    <row r="44" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>135</v>
       </c>
@@ -20355,7 +20356,7 @@
         <v>48.400000000000006</v>
       </c>
     </row>
-    <row r="45" spans="3:16">
+    <row r="45" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>136</v>
       </c>
@@ -20412,7 +20413,7 @@
         <v>254.10000000000002</v>
       </c>
     </row>
-    <row r="46" spans="3:16">
+    <row r="46" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>125</v>
       </c>
@@ -20469,7 +20470,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="47" spans="3:16">
+    <row r="47" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>126</v>
       </c>
@@ -20526,7 +20527,7 @@
         <v>1876.4</v>
       </c>
     </row>
-    <row r="48" spans="3:16">
+    <row r="48" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>128</v>
       </c>
@@ -20583,7 +20584,7 @@
         <v>961.6</v>
       </c>
     </row>
-    <row r="49" spans="3:16">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>140</v>
       </c>
@@ -20640,7 +20641,7 @@
         <v>4006.5</v>
       </c>
     </row>
-    <row r="53" spans="3:16">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>6</v>
       </c>
@@ -20681,7 +20682,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="3:16">
+    <row r="54" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>135</v>
       </c>
@@ -20738,7 +20739,7 @@
         <v>15.400000000000002</v>
       </c>
     </row>
-    <row r="55" spans="3:16">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>124</v>
       </c>
@@ -20795,7 +20796,7 @@
         <v>80.850000000000009</v>
       </c>
     </row>
-    <row r="56" spans="3:16">
+    <row r="56" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>125</v>
       </c>
@@ -20852,7 +20853,7 @@
         <v>144.4</v>
       </c>
     </row>
-    <row r="57" spans="3:16">
+    <row r="57" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>126</v>
       </c>
@@ -20909,7 +20910,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="58" spans="3:16">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>128</v>
       </c>
@@ -20966,7 +20967,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="3:16">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>140</v>
       </c>
@@ -21023,7 +21024,7 @@
         <v>440.15000000000003</v>
       </c>
     </row>
-    <row r="64" spans="3:16">
+    <row r="64" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>6</v>
       </c>
@@ -21064,7 +21065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="2:16">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>272</v>
       </c>
@@ -21072,12 +21073,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="2:16">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="70" spans="2:16">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>143</v>
       </c>
@@ -21124,7 +21125,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="71" spans="2:16">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>145</v>
       </c>
@@ -21168,7 +21169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="2:16">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>146</v>
       </c>
@@ -21225,12 +21226,12 @@
         <v>1.2209575648449267</v>
       </c>
     </row>
-    <row r="74" spans="2:16">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="2:16">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>143</v>
       </c>
@@ -21277,7 +21278,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="76" spans="2:16">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>145</v>
       </c>
@@ -21321,7 +21322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="2:16">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>146</v>
       </c>
@@ -21378,12 +21379,12 @@
         <v>3.7561685891908114</v>
       </c>
     </row>
-    <row r="79" spans="2:16">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="80" spans="2:16">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
         <v>143</v>
       </c>
@@ -21430,7 +21431,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="81" spans="3:16">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>145</v>
       </c>
@@ -21474,7 +21475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="3:16">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>146</v>
       </c>
@@ -21531,12 +21532,12 @@
         <v>1.5995484330134033</v>
       </c>
     </row>
-    <row r="87" spans="3:16">
+    <row r="87" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="3:16">
+    <row r="88" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>6</v>
       </c>
@@ -21577,7 +21578,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="3:16">
+    <row r="89" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>139</v>
       </c>
@@ -21634,12 +21635,12 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="91" spans="3:16">
+    <row r="91" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="92" spans="3:16">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
         <v>6</v>
       </c>
@@ -21680,7 +21681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="3:16">
+    <row r="93" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>139</v>
       </c>
@@ -21737,12 +21738,12 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="95" spans="3:16">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C95" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="96" spans="3:16">
+    <row r="96" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
         <v>6</v>
       </c>
@@ -21783,7 +21784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="3:16">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C97" t="s">
         <v>139</v>
       </c>
@@ -21840,12 +21841,12 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="100" spans="3:16">
+    <row r="100" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C100" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="3:16">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
         <v>6</v>
       </c>
@@ -21886,37 +21887,37 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="3:16">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C102" t="s">
         <v>138</v>
       </c>
       <c r="D102">
-        <f t="shared" ref="D102:P102" si="31">D8*12*D26</f>
-        <v>18354117.599999998</v>
+        <f>D8*12*D26</f>
+        <v>11143571.4</v>
       </c>
       <c r="E102">
-        <f t="shared" si="31"/>
-        <v>21751329.599999998</v>
+        <f t="shared" ref="E102:P102" si="31">E8*12*E26</f>
+        <v>13206164.4</v>
       </c>
       <c r="F102">
         <f t="shared" si="31"/>
-        <v>11412844.799999999</v>
+        <v>6929227.2000000002</v>
       </c>
       <c r="G102">
-        <f t="shared" si="31"/>
-        <v>13363744.799999999</v>
+        <f>G8*12*G26</f>
+        <v>8113702.2000000002</v>
       </c>
       <c r="H102">
         <f t="shared" si="31"/>
-        <v>6419044.7999999998</v>
+        <v>3897277.1999999997</v>
       </c>
       <c r="I102">
         <f t="shared" si="31"/>
-        <v>67141958.400000006</v>
+        <v>51882422.399999999</v>
       </c>
       <c r="J102">
         <f t="shared" si="31"/>
-        <v>20684347.200000003</v>
+        <v>15983359.199999999</v>
       </c>
       <c r="K102">
         <f t="shared" si="31"/>
@@ -21943,12 +21944,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="104" spans="3:16">
+    <row r="104" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="105" spans="3:16">
+    <row r="105" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
         <v>6</v>
       </c>
@@ -21989,37 +21990,37 @@
         <v>14</v>
       </c>
     </row>
-    <row r="106" spans="3:16">
+    <row r="106" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C106" t="s">
         <v>138</v>
       </c>
       <c r="D106">
         <f t="shared" ref="D106:P106" si="32">D8*12*D26</f>
-        <v>18354117.599999998</v>
+        <v>11143571.4</v>
       </c>
       <c r="E106">
         <f t="shared" si="32"/>
-        <v>21751329.599999998</v>
+        <v>13206164.4</v>
       </c>
       <c r="F106">
         <f t="shared" si="32"/>
-        <v>11412844.799999999</v>
+        <v>6929227.2000000002</v>
       </c>
       <c r="G106">
-        <f t="shared" si="32"/>
-        <v>13363744.799999999</v>
+        <f>G8*12*G26</f>
+        <v>8113702.2000000002</v>
       </c>
       <c r="H106">
         <f t="shared" si="32"/>
-        <v>6419044.7999999998</v>
+        <v>3897277.1999999997</v>
       </c>
       <c r="I106">
         <f t="shared" si="32"/>
-        <v>67141958.400000006</v>
+        <v>51882422.399999999</v>
       </c>
       <c r="J106">
         <f t="shared" si="32"/>
-        <v>20684347.200000003</v>
+        <v>15983359.199999999</v>
       </c>
       <c r="K106">
         <f t="shared" si="32"/>
@@ -22046,12 +22047,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="108" spans="3:16">
+    <row r="108" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="109" spans="3:16">
+    <row r="109" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
         <v>6</v>
       </c>
@@ -22092,37 +22093,37 @@
         <v>14</v>
       </c>
     </row>
-    <row r="110" spans="3:16">
+    <row r="110" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>138</v>
       </c>
       <c r="D110">
         <f t="shared" ref="D110:P110" si="33">D8*12*D26</f>
-        <v>18354117.599999998</v>
+        <v>11143571.4</v>
       </c>
       <c r="E110">
         <f t="shared" si="33"/>
-        <v>21751329.599999998</v>
+        <v>13206164.4</v>
       </c>
       <c r="F110">
         <f t="shared" si="33"/>
-        <v>11412844.799999999</v>
+        <v>6929227.2000000002</v>
       </c>
       <c r="G110">
-        <f t="shared" si="33"/>
-        <v>13363744.799999999</v>
+        <f>G8*12*G26</f>
+        <v>8113702.2000000002</v>
       </c>
       <c r="H110">
         <f t="shared" si="33"/>
-        <v>6419044.7999999998</v>
+        <v>3897277.1999999997</v>
       </c>
       <c r="I110">
         <f t="shared" si="33"/>
-        <v>67141958.400000006</v>
+        <v>51882422.399999999</v>
       </c>
       <c r="J110">
         <f t="shared" si="33"/>
-        <v>20684347.200000003</v>
+        <v>15983359.199999999</v>
       </c>
       <c r="K110">
         <f t="shared" si="33"/>
@@ -22149,12 +22150,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="113" spans="2:16">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="2:16">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
         <v>149</v>
       </c>
@@ -22198,7 +22199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="2:16">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>150</v>
       </c>
@@ -22255,37 +22256,37 @@
         <v>-2552.7750000000001</v>
       </c>
     </row>
-    <row r="116" spans="2:16">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="36">
         <f>D102-D89</f>
-        <v>10142102.568705861</v>
+        <v>2931556.3687058631</v>
       </c>
       <c r="E116" s="36">
         <f>E102-E89</f>
-        <v>12018714.714068495</v>
+        <v>3473549.5140684973</v>
       </c>
       <c r="F116" s="36">
         <f t="shared" ref="F116:P116" si="35">F102-F89</f>
-        <v>6306680.8323444249</v>
+        <v>1823063.2323444262</v>
       </c>
       <c r="G116" s="36">
         <f t="shared" si="35"/>
-        <v>7384787.5484326724</v>
+        <v>2134744.9484326737</v>
       </c>
       <c r="H116" s="36">
         <f t="shared" si="35"/>
-        <v>3545938.6120712371</v>
+        <v>1024171.012071237</v>
       </c>
       <c r="I116" s="36">
         <f t="shared" si="35"/>
-        <v>36556695.677557632</v>
+        <v>21297159.677557625</v>
       </c>
       <c r="J116" s="36">
         <f t="shared" si="35"/>
-        <v>11262058.815014903</v>
+        <v>6561070.8150148988</v>
       </c>
       <c r="K116" s="36">
         <f t="shared" si="35"/>
@@ -22312,37 +22313,37 @@
         <v>1174.5</v>
       </c>
     </row>
-    <row r="117" spans="2:16">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117" s="36">
         <f>D116</f>
-        <v>10142102.568705861</v>
+        <v>2931556.3687058631</v>
       </c>
       <c r="E117" s="36">
         <f t="shared" ref="E117:P117" si="36">E116</f>
-        <v>12018714.714068495</v>
+        <v>3473549.5140684973</v>
       </c>
       <c r="F117" s="36">
         <f t="shared" si="36"/>
-        <v>6306680.8323444249</v>
+        <v>1823063.2323444262</v>
       </c>
       <c r="G117" s="36">
         <f t="shared" si="36"/>
-        <v>7384787.5484326724</v>
+        <v>2134744.9484326737</v>
       </c>
       <c r="H117" s="36">
         <f t="shared" si="36"/>
-        <v>3545938.6120712371</v>
+        <v>1024171.012071237</v>
       </c>
       <c r="I117" s="36">
         <f t="shared" si="36"/>
-        <v>36556695.677557632</v>
+        <v>21297159.677557625</v>
       </c>
       <c r="J117" s="36">
         <f t="shared" si="36"/>
-        <v>11262058.815014903</v>
+        <v>6561070.8150148988</v>
       </c>
       <c r="K117" s="36">
         <f t="shared" si="36"/>
@@ -22369,37 +22370,37 @@
         <v>1174.5</v>
       </c>
     </row>
-    <row r="118" spans="2:16">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C118">
         <v>3</v>
       </c>
       <c r="D118" s="36">
         <f t="shared" ref="D118:D120" si="37">D117</f>
-        <v>10142102.568705861</v>
+        <v>2931556.3687058631</v>
       </c>
       <c r="E118" s="36">
         <f t="shared" ref="E118:E120" si="38">E117</f>
-        <v>12018714.714068495</v>
+        <v>3473549.5140684973</v>
       </c>
       <c r="F118" s="36">
         <f t="shared" ref="F118:F120" si="39">F117</f>
-        <v>6306680.8323444249</v>
+        <v>1823063.2323444262</v>
       </c>
       <c r="G118" s="36">
         <f t="shared" ref="G118:G120" si="40">G117</f>
-        <v>7384787.5484326724</v>
+        <v>2134744.9484326737</v>
       </c>
       <c r="H118" s="36">
         <f t="shared" ref="H118:H120" si="41">H117</f>
-        <v>3545938.6120712371</v>
+        <v>1024171.012071237</v>
       </c>
       <c r="I118" s="36">
         <f t="shared" ref="I118:I120" si="42">I117</f>
-        <v>36556695.677557632</v>
+        <v>21297159.677557625</v>
       </c>
       <c r="J118" s="36">
         <f t="shared" ref="J118:J120" si="43">J117</f>
-        <v>11262058.815014903</v>
+        <v>6561070.8150148988</v>
       </c>
       <c r="K118" s="36">
         <f t="shared" ref="K118:K120" si="44">K117</f>
@@ -22426,37 +22427,37 @@
         <v>1174.5</v>
       </c>
     </row>
-    <row r="119" spans="2:16">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C119">
         <v>4</v>
       </c>
       <c r="D119" s="36">
         <f t="shared" si="37"/>
-        <v>10142102.568705861</v>
+        <v>2931556.3687058631</v>
       </c>
       <c r="E119" s="36">
         <f t="shared" si="38"/>
-        <v>12018714.714068495</v>
+        <v>3473549.5140684973</v>
       </c>
       <c r="F119" s="36">
         <f t="shared" si="39"/>
-        <v>6306680.8323444249</v>
+        <v>1823063.2323444262</v>
       </c>
       <c r="G119" s="36">
         <f t="shared" si="40"/>
-        <v>7384787.5484326724</v>
+        <v>2134744.9484326737</v>
       </c>
       <c r="H119" s="36">
         <f t="shared" si="41"/>
-        <v>3545938.6120712371</v>
+        <v>1024171.012071237</v>
       </c>
       <c r="I119" s="36">
         <f t="shared" si="42"/>
-        <v>36556695.677557632</v>
+        <v>21297159.677557625</v>
       </c>
       <c r="J119" s="36">
         <f t="shared" si="43"/>
-        <v>11262058.815014903</v>
+        <v>6561070.8150148988</v>
       </c>
       <c r="K119" s="36">
         <f t="shared" si="44"/>
@@ -22483,37 +22484,37 @@
         <v>1174.5</v>
       </c>
     </row>
-    <row r="120" spans="2:16">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C120">
         <v>5</v>
       </c>
       <c r="D120" s="36">
         <f t="shared" si="37"/>
-        <v>10142102.568705861</v>
+        <v>2931556.3687058631</v>
       </c>
       <c r="E120" s="36">
         <f t="shared" si="38"/>
-        <v>12018714.714068495</v>
+        <v>3473549.5140684973</v>
       </c>
       <c r="F120" s="36">
         <f t="shared" si="39"/>
-        <v>6306680.8323444249</v>
+        <v>1823063.2323444262</v>
       </c>
       <c r="G120" s="36">
         <f t="shared" si="40"/>
-        <v>7384787.5484326724</v>
+        <v>2134744.9484326737</v>
       </c>
       <c r="H120" s="36">
         <f t="shared" si="41"/>
-        <v>3545938.6120712371</v>
+        <v>1024171.012071237</v>
       </c>
       <c r="I120" s="36">
         <f t="shared" si="42"/>
-        <v>36556695.677557632</v>
+        <v>21297159.677557625</v>
       </c>
       <c r="J120" s="36">
         <f t="shared" si="43"/>
-        <v>11262058.815014903</v>
+        <v>6561070.8150148988</v>
       </c>
       <c r="K120" s="36">
         <f t="shared" si="44"/>
@@ -22540,37 +22541,37 @@
         <v>1174.5</v>
       </c>
     </row>
-    <row r="121" spans="2:16">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
         <v>149</v>
       </c>
       <c r="D121" s="36">
         <f>NPV(5%,D116:D120)+D115</f>
-        <v>37272725.137356922</v>
+        <v>6054833.5819512345</v>
       </c>
       <c r="E121" s="36">
         <f t="shared" ref="E121:P121" si="50">NPV(5%,E116:E120)+E115</f>
-        <v>44271961.69052691</v>
+        <v>7275868.3104405776</v>
       </c>
       <c r="F121" s="36">
         <f t="shared" si="50"/>
-        <v>23256685.337749742</v>
+        <v>3844967.5385200046</v>
       </c>
       <c r="G121" s="36">
         <f t="shared" si="50"/>
-        <v>27065322.848504215</v>
+        <v>4335385.8919862518</v>
       </c>
       <c r="H121" s="36">
         <f t="shared" si="50"/>
-        <v>13085385.186451446</v>
+        <v>2167451.1934987754</v>
       </c>
       <c r="I121" s="36">
         <f t="shared" si="50"/>
-        <v>144560556.53133625</v>
+        <v>78494751.4146851</v>
       </c>
       <c r="J121" s="36">
         <f t="shared" si="50"/>
-        <v>44455628.792879194</v>
+        <v>24102810.917963736</v>
       </c>
       <c r="K121" s="36">
         <f t="shared" si="50"/>
@@ -22597,37 +22598,37 @@
         <v>2532.1953496558967</v>
       </c>
     </row>
-    <row r="122" spans="2:16">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
         <v>151</v>
       </c>
       <c r="D122" s="35">
         <f>IRR(D115:D120)</f>
-        <v>1.5128002664304696</v>
+        <v>0.33910885446497474</v>
       </c>
       <c r="E122" s="35">
         <f t="shared" ref="E122:P122" si="51">IRR(E115:E120)</f>
-        <v>1.5334123264325656</v>
+        <v>0.34628882110604797</v>
       </c>
       <c r="F122" s="35">
         <f t="shared" si="51"/>
-        <v>1.5433571418329324</v>
+        <v>0.34988816743037066</v>
       </c>
       <c r="G122" s="35">
         <f t="shared" si="51"/>
-        <v>1.4892197155052438</v>
+        <v>0.33083458460705195</v>
       </c>
       <c r="H122" s="35">
         <f t="shared" si="51"/>
-        <v>1.5498671875128234</v>
+        <v>0.35170751660852195</v>
       </c>
       <c r="I122" s="35">
         <f t="shared" si="51"/>
-        <v>2.662221739719159</v>
+        <v>1.5385786880267331</v>
       </c>
       <c r="J122" s="35">
         <f t="shared" si="51"/>
-        <v>2.6128889926271164</v>
+        <v>1.5093751283861074</v>
       </c>
       <c r="K122" s="35">
         <f t="shared" si="51"/>
@@ -22654,12 +22655,12 @@
         <v>0.36187950910258171</v>
       </c>
     </row>
-    <row r="126" spans="2:16">
+    <row r="126" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="2:16">
+    <row r="127" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
         <v>149</v>
       </c>
@@ -22703,7 +22704,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="2:16">
+    <row r="128" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C128" t="s">
         <v>150</v>
       </c>
@@ -22760,37 +22761,37 @@
         <v>-4006.5</v>
       </c>
     </row>
-    <row r="129" spans="3:16">
+    <row r="129" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" s="36">
         <f>D106-D93</f>
-        <v>9949956.9283361137</v>
+        <v>2739410.7283361163</v>
       </c>
       <c r="E129" s="36">
         <f>E106-E93</f>
-        <v>11790989.909303406</v>
+        <v>3245824.7093034089</v>
       </c>
       <c r="F129" s="36">
         <f t="shared" ref="F129:P129" si="53">F106-F93</f>
-        <v>6184559.677382458</v>
+        <v>1700942.0773824593</v>
       </c>
       <c r="G129" s="36">
         <f t="shared" si="53"/>
-        <v>7242244.6792131737</v>
+        <v>1992202.079213175</v>
       </c>
       <c r="H129" s="36">
         <f t="shared" si="53"/>
-        <v>3477390.0726958252</v>
+        <v>955622.47269582516</v>
       </c>
       <c r="I129" s="36">
         <f t="shared" si="53"/>
-        <v>35839735.019711994</v>
+        <v>20580199.019711986</v>
       </c>
       <c r="J129" s="36">
         <f t="shared" si="53"/>
-        <v>11041595.064208046</v>
+        <v>6340607.0642080419</v>
       </c>
       <c r="K129" s="36">
         <f t="shared" si="53"/>
@@ -22817,37 +22818,37 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="130" spans="3:16">
+    <row r="130" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130" s="36">
         <f>D129</f>
-        <v>9949956.9283361137</v>
+        <v>2739410.7283361163</v>
       </c>
       <c r="E130" s="36">
         <f t="shared" ref="E130:P130" si="54">E129</f>
-        <v>11790989.909303406</v>
+        <v>3245824.7093034089</v>
       </c>
       <c r="F130" s="36">
         <f t="shared" si="54"/>
-        <v>6184559.677382458</v>
+        <v>1700942.0773824593</v>
       </c>
       <c r="G130" s="36">
         <f t="shared" si="54"/>
-        <v>7242244.6792131737</v>
+        <v>1992202.079213175</v>
       </c>
       <c r="H130" s="36">
         <f t="shared" si="54"/>
-        <v>3477390.0726958252</v>
+        <v>955622.47269582516</v>
       </c>
       <c r="I130" s="36">
         <f t="shared" si="54"/>
-        <v>35839735.019711994</v>
+        <v>20580199.019711986</v>
       </c>
       <c r="J130" s="36">
         <f t="shared" si="54"/>
-        <v>11041595.064208046</v>
+        <v>6340607.0642080419</v>
       </c>
       <c r="K130" s="36">
         <f t="shared" si="54"/>
@@ -22874,37 +22875,37 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="131" spans="3:16">
+    <row r="131" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C131">
         <v>3</v>
       </c>
       <c r="D131" s="36">
         <f t="shared" ref="D131:D138" si="55">D130</f>
-        <v>9949956.9283361137</v>
+        <v>2739410.7283361163</v>
       </c>
       <c r="E131" s="36">
         <f t="shared" ref="E131:E138" si="56">E130</f>
-        <v>11790989.909303406</v>
+        <v>3245824.7093034089</v>
       </c>
       <c r="F131" s="36">
         <f t="shared" ref="F131:F138" si="57">F130</f>
-        <v>6184559.677382458</v>
+        <v>1700942.0773824593</v>
       </c>
       <c r="G131" s="36">
         <f t="shared" ref="G131:G138" si="58">G130</f>
-        <v>7242244.6792131737</v>
+        <v>1992202.079213175</v>
       </c>
       <c r="H131" s="36">
         <f t="shared" ref="H131:H138" si="59">H130</f>
-        <v>3477390.0726958252</v>
+        <v>955622.47269582516</v>
       </c>
       <c r="I131" s="36">
         <f t="shared" ref="I131:I138" si="60">I130</f>
-        <v>35839735.019711994</v>
+        <v>20580199.019711986</v>
       </c>
       <c r="J131" s="36">
         <f t="shared" ref="J131:J138" si="61">J130</f>
-        <v>11041595.064208046</v>
+        <v>6340607.0642080419</v>
       </c>
       <c r="K131" s="36">
         <f t="shared" ref="K131:K138" si="62">K130</f>
@@ -22931,37 +22932,37 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="132" spans="3:16">
+    <row r="132" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C132">
         <v>4</v>
       </c>
       <c r="D132" s="36">
         <f t="shared" si="55"/>
-        <v>9949956.9283361137</v>
+        <v>2739410.7283361163</v>
       </c>
       <c r="E132" s="36">
         <f t="shared" si="56"/>
-        <v>11790989.909303406</v>
+        <v>3245824.7093034089</v>
       </c>
       <c r="F132" s="36">
         <f t="shared" si="57"/>
-        <v>6184559.677382458</v>
+        <v>1700942.0773824593</v>
       </c>
       <c r="G132" s="36">
         <f t="shared" si="58"/>
-        <v>7242244.6792131737</v>
+        <v>1992202.079213175</v>
       </c>
       <c r="H132" s="36">
         <f t="shared" si="59"/>
-        <v>3477390.0726958252</v>
+        <v>955622.47269582516</v>
       </c>
       <c r="I132" s="36">
         <f t="shared" si="60"/>
-        <v>35839735.019711994</v>
+        <v>20580199.019711986</v>
       </c>
       <c r="J132" s="36">
         <f t="shared" si="61"/>
-        <v>11041595.064208046</v>
+        <v>6340607.0642080419</v>
       </c>
       <c r="K132" s="36">
         <f t="shared" si="62"/>
@@ -22988,37 +22989,37 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="133" spans="3:16">
+    <row r="133" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C133">
         <v>5</v>
       </c>
       <c r="D133" s="36">
         <f t="shared" si="55"/>
-        <v>9949956.9283361137</v>
+        <v>2739410.7283361163</v>
       </c>
       <c r="E133" s="36">
         <f t="shared" si="56"/>
-        <v>11790989.909303406</v>
+        <v>3245824.7093034089</v>
       </c>
       <c r="F133" s="36">
         <f t="shared" si="57"/>
-        <v>6184559.677382458</v>
+        <v>1700942.0773824593</v>
       </c>
       <c r="G133" s="36">
         <f t="shared" si="58"/>
-        <v>7242244.6792131737</v>
+        <v>1992202.079213175</v>
       </c>
       <c r="H133" s="36">
         <f t="shared" si="59"/>
-        <v>3477390.0726958252</v>
+        <v>955622.47269582516</v>
       </c>
       <c r="I133" s="36">
         <f t="shared" si="60"/>
-        <v>35839735.019711994</v>
+        <v>20580199.019711986</v>
       </c>
       <c r="J133" s="36">
         <f t="shared" si="61"/>
-        <v>11041595.064208046</v>
+        <v>6340607.0642080419</v>
       </c>
       <c r="K133" s="36">
         <f t="shared" si="62"/>
@@ -23045,37 +23046,37 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="134" spans="3:16">
+    <row r="134" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C134">
         <v>6</v>
       </c>
       <c r="D134" s="36">
         <f t="shared" si="55"/>
-        <v>9949956.9283361137</v>
+        <v>2739410.7283361163</v>
       </c>
       <c r="E134" s="36">
         <f t="shared" si="56"/>
-        <v>11790989.909303406</v>
+        <v>3245824.7093034089</v>
       </c>
       <c r="F134" s="36">
         <f t="shared" si="57"/>
-        <v>6184559.677382458</v>
+        <v>1700942.0773824593</v>
       </c>
       <c r="G134" s="36">
         <f t="shared" si="58"/>
-        <v>7242244.6792131737</v>
+        <v>1992202.079213175</v>
       </c>
       <c r="H134" s="36">
         <f t="shared" si="59"/>
-        <v>3477390.0726958252</v>
+        <v>955622.47269582516</v>
       </c>
       <c r="I134" s="36">
         <f t="shared" si="60"/>
-        <v>35839735.019711994</v>
+        <v>20580199.019711986</v>
       </c>
       <c r="J134" s="36">
         <f t="shared" si="61"/>
-        <v>11041595.064208046</v>
+        <v>6340607.0642080419</v>
       </c>
       <c r="K134" s="36">
         <f t="shared" si="62"/>
@@ -23102,37 +23103,37 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="135" spans="3:16">
+    <row r="135" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C135">
         <v>7</v>
       </c>
       <c r="D135" s="36">
         <f t="shared" si="55"/>
-        <v>9949956.9283361137</v>
+        <v>2739410.7283361163</v>
       </c>
       <c r="E135" s="36">
         <f t="shared" si="56"/>
-        <v>11790989.909303406</v>
+        <v>3245824.7093034089</v>
       </c>
       <c r="F135" s="36">
         <f t="shared" si="57"/>
-        <v>6184559.677382458</v>
+        <v>1700942.0773824593</v>
       </c>
       <c r="G135" s="36">
         <f t="shared" si="58"/>
-        <v>7242244.6792131737</v>
+        <v>1992202.079213175</v>
       </c>
       <c r="H135" s="36">
         <f t="shared" si="59"/>
-        <v>3477390.0726958252</v>
+        <v>955622.47269582516</v>
       </c>
       <c r="I135" s="36">
         <f t="shared" si="60"/>
-        <v>35839735.019711994</v>
+        <v>20580199.019711986</v>
       </c>
       <c r="J135" s="36">
         <f t="shared" si="61"/>
-        <v>11041595.064208046</v>
+        <v>6340607.0642080419</v>
       </c>
       <c r="K135" s="36">
         <f t="shared" si="62"/>
@@ -23159,37 +23160,37 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="136" spans="3:16">
+    <row r="136" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C136">
         <v>8</v>
       </c>
       <c r="D136" s="36">
         <f t="shared" si="55"/>
-        <v>9949956.9283361137</v>
+        <v>2739410.7283361163</v>
       </c>
       <c r="E136" s="36">
         <f t="shared" si="56"/>
-        <v>11790989.909303406</v>
+        <v>3245824.7093034089</v>
       </c>
       <c r="F136" s="36">
         <f t="shared" si="57"/>
-        <v>6184559.677382458</v>
+        <v>1700942.0773824593</v>
       </c>
       <c r="G136" s="36">
         <f t="shared" si="58"/>
-        <v>7242244.6792131737</v>
+        <v>1992202.079213175</v>
       </c>
       <c r="H136" s="36">
         <f t="shared" si="59"/>
-        <v>3477390.0726958252</v>
+        <v>955622.47269582516</v>
       </c>
       <c r="I136" s="36">
         <f t="shared" si="60"/>
-        <v>35839735.019711994</v>
+        <v>20580199.019711986</v>
       </c>
       <c r="J136" s="36">
         <f t="shared" si="61"/>
-        <v>11041595.064208046</v>
+        <v>6340607.0642080419</v>
       </c>
       <c r="K136" s="36">
         <f t="shared" si="62"/>
@@ -23216,37 +23217,37 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="137" spans="3:16">
+    <row r="137" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C137">
         <v>9</v>
       </c>
       <c r="D137" s="36">
         <f t="shared" si="55"/>
-        <v>9949956.9283361137</v>
+        <v>2739410.7283361163</v>
       </c>
       <c r="E137" s="36">
         <f t="shared" si="56"/>
-        <v>11790989.909303406</v>
+        <v>3245824.7093034089</v>
       </c>
       <c r="F137" s="36">
         <f t="shared" si="57"/>
-        <v>6184559.677382458</v>
+        <v>1700942.0773824593</v>
       </c>
       <c r="G137" s="36">
         <f t="shared" si="58"/>
-        <v>7242244.6792131737</v>
+        <v>1992202.079213175</v>
       </c>
       <c r="H137" s="36">
         <f t="shared" si="59"/>
-        <v>3477390.0726958252</v>
+        <v>955622.47269582516</v>
       </c>
       <c r="I137" s="36">
         <f t="shared" si="60"/>
-        <v>35839735.019711994</v>
+        <v>20580199.019711986</v>
       </c>
       <c r="J137" s="36">
         <f t="shared" si="61"/>
-        <v>11041595.064208046</v>
+        <v>6340607.0642080419</v>
       </c>
       <c r="K137" s="36">
         <f t="shared" si="62"/>
@@ -23273,37 +23274,37 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="138" spans="3:16">
+    <row r="138" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C138">
         <v>10</v>
       </c>
       <c r="D138" s="36">
         <f t="shared" si="55"/>
-        <v>9949956.9283361137</v>
+        <v>2739410.7283361163</v>
       </c>
       <c r="E138" s="36">
         <f t="shared" si="56"/>
-        <v>11790989.909303406</v>
+        <v>3245824.7093034089</v>
       </c>
       <c r="F138" s="36">
         <f t="shared" si="57"/>
-        <v>6184559.677382458</v>
+        <v>1700942.0773824593</v>
       </c>
       <c r="G138" s="36">
         <f t="shared" si="58"/>
-        <v>7242244.6792131737</v>
+        <v>1992202.079213175</v>
       </c>
       <c r="H138" s="36">
         <f t="shared" si="59"/>
-        <v>3477390.0726958252</v>
+        <v>955622.47269582516</v>
       </c>
       <c r="I138" s="36">
         <f t="shared" si="60"/>
-        <v>35839735.019711994</v>
+        <v>20580199.019711986</v>
       </c>
       <c r="J138" s="36">
         <f t="shared" si="61"/>
-        <v>11041595.064208046</v>
+        <v>6340607.0642080419</v>
       </c>
       <c r="K138" s="36">
         <f t="shared" si="62"/>
@@ -23330,37 +23331,37 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="139" spans="3:16">
+    <row r="139" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
         <v>149</v>
       </c>
       <c r="D139" s="36">
         <f>NPV(5%,D129:D138)+D128</f>
-        <v>69213540.557417363</v>
+        <v>13535614.106376594</v>
       </c>
       <c r="E139" s="36">
         <f t="shared" ref="E139:P139" si="68">NPV(5%,E129:E138)+E128</f>
-        <v>82329503.582333758</v>
+        <v>16346002.981839262</v>
       </c>
       <c r="F139" s="36">
         <f t="shared" si="68"/>
-        <v>43342658.582472064</v>
+        <v>8721351.9514443073</v>
       </c>
       <c r="G139" s="36">
         <f t="shared" si="68"/>
-        <v>50183446.805183209</v>
+        <v>9644009.4810549803</v>
       </c>
       <c r="H139" s="36">
         <f t="shared" si="68"/>
-        <v>24307483.186735865</v>
+        <v>4835062.2265293123</v>
       </c>
       <c r="I139" s="36">
         <f t="shared" si="68"/>
-        <v>261293882.00443816</v>
+        <v>143463789.870085</v>
       </c>
       <c r="J139" s="36">
         <f t="shared" si="68"/>
-        <v>80233333.331209868</v>
+        <v>43933550.08993119</v>
       </c>
       <c r="K139" s="36">
         <f t="shared" si="68"/>
@@ -23387,37 +23388,37 @@
         <v>5141.4393706052469</v>
       </c>
     </row>
-    <row r="140" spans="3:16">
+    <row r="140" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
         <v>151</v>
       </c>
       <c r="D140" s="35">
         <f>IRR(D128:D138)</f>
-        <v>1.3059088112822868</v>
+        <v>0.34041965325175028</v>
       </c>
       <c r="E140" s="35">
         <f t="shared" ref="E140:P140" si="69">IRR(E128:E138)</f>
-        <v>1.3523210685055798</v>
+        <v>0.3544154818298153</v>
       </c>
       <c r="F140" s="35">
         <f t="shared" si="69"/>
-        <v>1.4012619221560998</v>
+        <v>0.36874969979092542</v>
       </c>
       <c r="G140" s="35">
         <f t="shared" si="69"/>
-        <v>1.2615200721732824</v>
+        <v>0.32654846045197505</v>
       </c>
       <c r="H140" s="35">
         <f t="shared" si="69"/>
-        <v>1.3666500006596696</v>
+        <v>0.35803113872442083</v>
       </c>
       <c r="I140" s="35">
         <f t="shared" si="69"/>
-        <v>2.3195517701622097</v>
+        <v>1.331680629228591</v>
       </c>
       <c r="J140" s="35">
         <f t="shared" si="69"/>
-        <v>2.1964659623339604</v>
+        <v>1.2609648391511086</v>
       </c>
       <c r="K140" s="35">
         <f t="shared" si="69"/>
@@ -23444,12 +23445,12 @@
         <v>0.26822262267047692</v>
       </c>
     </row>
-    <row r="144" spans="3:16">
+    <row r="144" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="145" spans="2:17">
+    <row r="145" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
         <v>149</v>
       </c>
@@ -23493,7 +23494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="2:17">
+    <row r="146" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
         <v>150</v>
       </c>
@@ -23550,37 +23551,37 @@
         <v>-440.15000000000003</v>
       </c>
     </row>
-    <row r="147" spans="2:17">
+    <row r="147" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147" s="36">
         <f>D110-D97</f>
-        <v>17665317.448522374</v>
+        <v>10454771.248522375</v>
       </c>
       <c r="E147" s="36">
         <f t="shared" ref="E147:P147" si="71">E110-E97</f>
-        <v>20935600.67368006</v>
+        <v>12390435.473680062</v>
       </c>
       <c r="F147" s="36">
         <f t="shared" si="71"/>
-        <v>10984671.732865259</v>
+        <v>6501054.1328652604</v>
       </c>
       <c r="G147" s="36">
         <f t="shared" si="71"/>
-        <v>12862799.235289</v>
+        <v>7612756.6352890003</v>
       </c>
       <c r="H147" s="36">
         <f t="shared" si="71"/>
-        <v>6177033.9359673206</v>
+        <v>3655266.3359673209</v>
       </c>
       <c r="I147" s="36">
         <f t="shared" si="71"/>
-        <v>64579689.531849824</v>
+        <v>49320153.531849816</v>
       </c>
       <c r="J147" s="36">
         <f t="shared" si="71"/>
-        <v>19894004.028648525</v>
+        <v>15193016.028648524</v>
       </c>
       <c r="K147" s="36">
         <f t="shared" si="71"/>
@@ -23608,37 +23609,37 @@
       </c>
       <c r="Q147" s="36"/>
     </row>
-    <row r="148" spans="2:17">
+    <row r="148" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C148">
         <v>2</v>
       </c>
       <c r="D148" s="36">
         <f>D147</f>
-        <v>17665317.448522374</v>
+        <v>10454771.248522375</v>
       </c>
       <c r="E148" s="36">
         <f t="shared" ref="E148:P151" si="72">E147</f>
-        <v>20935600.67368006</v>
+        <v>12390435.473680062</v>
       </c>
       <c r="F148" s="36">
         <f t="shared" si="72"/>
-        <v>10984671.732865259</v>
+        <v>6501054.1328652604</v>
       </c>
       <c r="G148" s="36">
         <f t="shared" si="72"/>
-        <v>12862799.235289</v>
+        <v>7612756.6352890003</v>
       </c>
       <c r="H148" s="36">
         <f t="shared" si="72"/>
-        <v>6177033.9359673206</v>
+        <v>3655266.3359673209</v>
       </c>
       <c r="I148" s="36">
         <f t="shared" si="72"/>
-        <v>64579689.531849824</v>
+        <v>49320153.531849816</v>
       </c>
       <c r="J148" s="36">
         <f t="shared" si="72"/>
-        <v>19894004.028648525</v>
+        <v>15193016.028648524</v>
       </c>
       <c r="K148" s="36">
         <f t="shared" si="72"/>
@@ -23665,37 +23666,37 @@
         <v>1194.9000000000001</v>
       </c>
     </row>
-    <row r="149" spans="2:17">
+    <row r="149" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C149">
         <v>3</v>
       </c>
       <c r="D149" s="36">
         <f t="shared" ref="D149:D151" si="73">D148</f>
-        <v>17665317.448522374</v>
+        <v>10454771.248522375</v>
       </c>
       <c r="E149" s="36">
         <f t="shared" si="72"/>
-        <v>20935600.67368006</v>
+        <v>12390435.473680062</v>
       </c>
       <c r="F149" s="36">
         <f t="shared" si="72"/>
-        <v>10984671.732865259</v>
+        <v>6501054.1328652604</v>
       </c>
       <c r="G149" s="36">
         <f t="shared" si="72"/>
-        <v>12862799.235289</v>
+        <v>7612756.6352890003</v>
       </c>
       <c r="H149" s="36">
         <f t="shared" si="72"/>
-        <v>6177033.9359673206</v>
+        <v>3655266.3359673209</v>
       </c>
       <c r="I149" s="36">
         <f t="shared" si="72"/>
-        <v>64579689.531849824</v>
+        <v>49320153.531849816</v>
       </c>
       <c r="J149" s="36">
         <f t="shared" si="72"/>
-        <v>19894004.028648525</v>
+        <v>15193016.028648524</v>
       </c>
       <c r="K149" s="36">
         <f t="shared" si="72"/>
@@ -23722,37 +23723,37 @@
         <v>1194.9000000000001</v>
       </c>
     </row>
-    <row r="150" spans="2:17">
+    <row r="150" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C150">
         <v>4</v>
       </c>
       <c r="D150" s="36">
         <f t="shared" si="73"/>
-        <v>17665317.448522374</v>
+        <v>10454771.248522375</v>
       </c>
       <c r="E150" s="36">
         <f t="shared" si="72"/>
-        <v>20935600.67368006</v>
+        <v>12390435.473680062</v>
       </c>
       <c r="F150" s="36">
         <f t="shared" si="72"/>
-        <v>10984671.732865259</v>
+        <v>6501054.1328652604</v>
       </c>
       <c r="G150" s="36">
         <f t="shared" si="72"/>
-        <v>12862799.235289</v>
+        <v>7612756.6352890003</v>
       </c>
       <c r="H150" s="36">
         <f t="shared" si="72"/>
-        <v>6177033.9359673206</v>
+        <v>3655266.3359673209</v>
       </c>
       <c r="I150" s="36">
         <f t="shared" si="72"/>
-        <v>64579689.531849824</v>
+        <v>49320153.531849816</v>
       </c>
       <c r="J150" s="36">
         <f t="shared" si="72"/>
-        <v>19894004.028648525</v>
+        <v>15193016.028648524</v>
       </c>
       <c r="K150" s="36">
         <f t="shared" si="72"/>
@@ -23779,37 +23780,37 @@
         <v>1194.9000000000001</v>
       </c>
     </row>
-    <row r="151" spans="2:17">
+    <row r="151" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C151">
         <v>5</v>
       </c>
       <c r="D151" s="36">
         <f t="shared" si="73"/>
-        <v>17665317.448522374</v>
+        <v>10454771.248522375</v>
       </c>
       <c r="E151" s="36">
         <f t="shared" si="72"/>
-        <v>20935600.67368006</v>
+        <v>12390435.473680062</v>
       </c>
       <c r="F151" s="36">
         <f t="shared" si="72"/>
-        <v>10984671.732865259</v>
+        <v>6501054.1328652604</v>
       </c>
       <c r="G151" s="36">
         <f t="shared" si="72"/>
-        <v>12862799.235289</v>
+        <v>7612756.6352890003</v>
       </c>
       <c r="H151" s="36">
         <f t="shared" si="72"/>
-        <v>6177033.9359673206</v>
+        <v>3655266.3359673209</v>
       </c>
       <c r="I151" s="36">
         <f t="shared" si="72"/>
-        <v>64579689.531849824</v>
+        <v>49320153.531849816</v>
       </c>
       <c r="J151" s="36">
         <f t="shared" si="72"/>
-        <v>19894004.028648525</v>
+        <v>15193016.028648524</v>
       </c>
       <c r="K151" s="36">
         <f t="shared" si="72"/>
@@ -23836,37 +23837,37 @@
         <v>1194.9000000000001</v>
       </c>
     </row>
-    <row r="152" spans="2:17">
+    <row r="152" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C152" t="s">
         <v>149</v>
       </c>
       <c r="D152" s="36">
         <f>NPV(5%,D147:D151)+D146</f>
-        <v>75964323.472665161</v>
+        <v>44746431.91725947</v>
       </c>
       <c r="E152" s="36">
         <f t="shared" ref="E152:P152" si="74">NPV(5%,E147:E151)+E146</f>
-        <v>90027620.90234068</v>
+        <v>53031527.522254363</v>
       </c>
       <c r="F152" s="36">
         <f t="shared" si="74"/>
-        <v>47236342.301977947</v>
+        <v>27824624.502748214</v>
       </c>
       <c r="G152" s="36">
         <f t="shared" si="74"/>
-        <v>55313002.808191665</v>
+        <v>32583065.851673696</v>
       </c>
       <c r="H152" s="36">
         <f t="shared" si="74"/>
-        <v>26561585.619465381</v>
+        <v>15643651.626512712</v>
       </c>
       <c r="I152" s="36">
         <f t="shared" si="74"/>
-        <v>278538124.6247251</v>
+        <v>212472319.50807393</v>
       </c>
       <c r="J152" s="36">
         <f t="shared" si="74"/>
-        <v>85804240.027469322</v>
+        <v>65451422.152553894</v>
       </c>
       <c r="K152" s="36">
         <f t="shared" si="74"/>
@@ -23893,37 +23894,37 @@
         <v>4733.1416737367672</v>
       </c>
     </row>
-    <row r="153" spans="2:17">
+    <row r="153" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C153" t="s">
         <v>151</v>
       </c>
       <c r="D153" s="35">
         <f>IRR(D146:D151)</f>
-        <v>34.151961260573735</v>
+        <v>20.211969992485077</v>
       </c>
       <c r="E153" s="35">
         <f t="shared" ref="E153:P153" si="75">IRR(E146:E151)</f>
-        <v>34.176453979864277</v>
+        <v>20.226840583999675</v>
       </c>
       <c r="F153" s="35">
         <f t="shared" si="75"/>
-        <v>34.162934948285766</v>
+        <v>20.218632593953082</v>
       </c>
       <c r="G153" s="35">
         <f t="shared" si="75"/>
-        <v>34.192620990590285</v>
+        <v>20.236656276945457</v>
       </c>
       <c r="H153" s="35">
         <f t="shared" si="75"/>
-        <v>33.988544091962083</v>
+        <v>20.112752345059455</v>
       </c>
       <c r="I153" s="35">
         <f t="shared" si="75"/>
-        <v>61.031639511209292</v>
+        <v>46.610472174560606</v>
       </c>
       <c r="J153" s="35">
         <f t="shared" si="75"/>
-        <v>60.95232553219823</v>
+        <v>46.549184099153422</v>
       </c>
       <c r="K153" s="35">
         <f t="shared" si="75"/>
@@ -23950,7 +23951,7 @@
         <v>2.7108985710346958</v>
       </c>
     </row>
-    <row r="159" spans="2:17">
+    <row r="159" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
         <v>30</v>
       </c>
@@ -23961,7 +23962,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="160" spans="2:17">
+    <row r="160" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C160">
         <v>0</v>
       </c>
@@ -23978,7 +23979,7 @@
         <v>0.33000000000000007</v>
       </c>
     </row>
-    <row r="161" spans="3:6">
+    <row r="161" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C161">
         <v>1</v>
       </c>
@@ -23995,7 +23996,7 @@
         <v>0.42063730207107852</v>
       </c>
     </row>
-    <row r="162" spans="3:6">
+    <row r="162" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C162">
         <v>2</v>
       </c>
@@ -24012,7 +24013,7 @@
         <v>0.68637242593339298</v>
       </c>
     </row>
-    <row r="163" spans="3:6">
+    <row r="163" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C163">
         <v>3</v>
       </c>
@@ -24029,7 +24030,7 @@
         <v>1.1090959620437835</v>
       </c>
     </row>
-    <row r="164" spans="3:6">
+    <row r="164" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C164">
         <v>4</v>
       </c>
@@ -24046,7 +24047,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="165" spans="3:6">
+    <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C165">
         <v>5</v>
       </c>
@@ -24063,7 +24064,7 @@
         <v>2.3015413400272946</v>
       </c>
     </row>
-    <row r="166" spans="3:6">
+    <row r="166" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C166">
         <v>6</v>
       </c>
@@ -24080,7 +24081,7 @@
         <v>2.99</v>
       </c>
     </row>
-    <row r="167" spans="3:6">
+    <row r="167" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C167">
         <v>7</v>
       </c>
@@ -24097,7 +24098,7 @@
         <v>3.6784586599727049</v>
       </c>
     </row>
-    <row r="168" spans="3:6">
+    <row r="168" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C168">
         <v>8</v>
       </c>
@@ -24114,7 +24115,7 @@
         <v>4.3199999999999994</v>
       </c>
     </row>
-    <row r="169" spans="3:6">
+    <row r="169" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C169">
         <v>9</v>
       </c>
@@ -24131,7 +24132,7 @@
         <v>4.8709040379562163</v>
       </c>
     </row>
-    <row r="170" spans="3:6">
+    <row r="170" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C170">
         <v>10</v>
       </c>
@@ -24148,7 +24149,7 @@
         <v>5.2936275740666066</v>
       </c>
     </row>
-    <row r="171" spans="3:6">
+    <row r="171" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C171">
         <v>11</v>
       </c>
@@ -24165,7 +24166,7 @@
         <v>5.5593626979289219</v>
       </c>
     </row>
-    <row r="172" spans="3:6">
+    <row r="172" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C172">
         <v>12</v>
       </c>
@@ -24182,7 +24183,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="173" spans="3:6">
+    <row r="173" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C173">
         <v>13</v>
       </c>
@@ -24199,7 +24200,7 @@
         <v>5.5593626979289219</v>
       </c>
     </row>
-    <row r="174" spans="3:6">
+    <row r="174" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C174">
         <v>14</v>
       </c>
@@ -24216,7 +24217,7 @@
         <v>5.2936275740666074</v>
       </c>
     </row>
-    <row r="175" spans="3:6">
+    <row r="175" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C175">
         <v>15</v>
       </c>
@@ -24233,7 +24234,7 @@
         <v>4.8709040379562181</v>
       </c>
     </row>
-    <row r="176" spans="3:6">
+    <row r="176" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C176">
         <v>16</v>
       </c>
@@ -24250,7 +24251,7 @@
         <v>4.3200000000000012</v>
       </c>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C177">
         <v>17</v>
       </c>
@@ -24267,7 +24268,7 @@
         <v>3.6784586599727076</v>
       </c>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C178">
         <v>18</v>
       </c>
@@ -24284,7 +24285,7 @@
         <v>2.9900000000000007</v>
       </c>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C179">
         <v>19</v>
       </c>
@@ -24301,7 +24302,7 @@
         <v>2.3015413400272964</v>
       </c>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C180">
         <v>20</v>
       </c>
@@ -24318,7 +24319,7 @@
         <v>1.6600000000000019</v>
       </c>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C181">
         <v>21</v>
       </c>
@@ -24335,7 +24336,7 @@
         <v>1.1090959620437841</v>
       </c>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C182">
         <v>22</v>
       </c>
@@ -24352,7 +24353,7 @@
         <v>0.68637242593339387</v>
       </c>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C183">
         <v>23</v>
       </c>
@@ -24369,7 +24370,7 @@
         <v>0.42063730207107897</v>
       </c>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C184">
         <v>24</v>
       </c>
@@ -24386,7 +24387,7 @@
         <v>0.33000000000000007</v>
       </c>
     </row>
-    <row r="190" spans="1:16">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D190" t="s">
         <v>6</v>
       </c>
@@ -24427,7 +24428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:16">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>268</v>
       </c>
@@ -24477,7 +24478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:16">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B192" t="s">
         <v>31</v>
       </c>
@@ -24524,7 +24525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:16">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B193" t="s">
         <v>266</v>
       </c>
@@ -24571,7 +24572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:16">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>269</v>
       </c>
@@ -24621,7 +24622,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="195" spans="1:16">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B195" t="s">
         <v>31</v>
       </c>
@@ -24668,7 +24669,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="196" spans="1:16">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B196" t="s">
         <v>266</v>
       </c>
@@ -24730,15 +24731,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="4" max="16" width="22.7109375" customWidth="1"/>
-    <col min="19" max="19" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="4" max="16" width="22.6640625" customWidth="1"/>
+    <col min="19" max="19" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>152</v>
       </c>
@@ -24764,7 +24765,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>6</v>
       </c>
@@ -24820,7 +24821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -24879,7 +24880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>90</v>
       </c>
@@ -24941,7 +24942,7 @@
         <v>12902.4</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>101</v>
       </c>
@@ -25003,7 +25004,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>104</v>
       </c>
@@ -25065,7 +25066,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>107</v>
       </c>
@@ -25125,7 +25126,7 @@
       </c>
       <c r="W7" s="33"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -25185,7 +25186,7 @@
       </c>
       <c r="W8" s="33"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -25247,7 +25248,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -25309,7 +25310,7 @@
         <v>938.2</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>137</v>
       </c>
@@ -25374,7 +25375,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>31</v>
       </c>
@@ -25429,7 +25430,7 @@
       <c r="V12" s="33"/>
       <c r="W12" s="33"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -25494,7 +25495,7 @@
         <v>7.65</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -25538,7 +25539,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -25597,7 +25598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>31</v>
       </c>
@@ -25654,7 +25655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -25704,7 +25705,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>31</v>
       </c>
@@ -25748,7 +25749,7 @@
         <v>480.8</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>142</v>
       </c>
@@ -25795,7 +25796,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>6</v>
       </c>
@@ -25836,7 +25837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>135</v>
       </c>
@@ -25893,7 +25894,7 @@
         <v>77.000000000000014</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>136</v>
       </c>
@@ -25950,7 +25951,7 @@
         <v>121.27500000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>125</v>
       </c>
@@ -26007,7 +26008,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>126</v>
       </c>
@@ -26064,7 +26065,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>127</v>
       </c>
@@ -26121,7 +26122,7 @@
         <v>310.5</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>128</v>
       </c>
@@ -26178,7 +26179,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>140</v>
       </c>
@@ -26235,7 +26236,7 @@
         <v>2552.7750000000001</v>
       </c>
     </row>
-    <row r="36" spans="3:16">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>6</v>
       </c>
@@ -26276,7 +26277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="3:16">
+    <row r="37" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>135</v>
       </c>
@@ -26333,7 +26334,7 @@
         <v>48.400000000000006</v>
       </c>
     </row>
-    <row r="38" spans="3:16">
+    <row r="38" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>136</v>
       </c>
@@ -26390,7 +26391,7 @@
         <v>254.10000000000002</v>
       </c>
     </row>
-    <row r="39" spans="3:16">
+    <row r="39" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>125</v>
       </c>
@@ -26447,7 +26448,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="40" spans="3:16">
+    <row r="40" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>126</v>
       </c>
@@ -26504,7 +26505,7 @@
         <v>1876.4</v>
       </c>
     </row>
-    <row r="41" spans="3:16">
+    <row r="41" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>127</v>
       </c>
@@ -26561,7 +26562,7 @@
         <v>124.2</v>
       </c>
     </row>
-    <row r="42" spans="3:16">
+    <row r="42" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>128</v>
       </c>
@@ -26618,7 +26619,7 @@
         <v>961.6</v>
       </c>
     </row>
-    <row r="43" spans="3:16">
+    <row r="43" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>140</v>
       </c>
@@ -26675,12 +26676,12 @@
         <v>4130.7</v>
       </c>
     </row>
-    <row r="48" spans="3:16">
+    <row r="48" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="2:16">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>143</v>
       </c>
@@ -26727,7 +26728,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="50" spans="2:16">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>145</v>
       </c>
@@ -26771,7 +26772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:16">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>146</v>
       </c>
@@ -26828,12 +26829,12 @@
         <v>1.2209575648449267</v>
       </c>
     </row>
-    <row r="53" spans="2:16">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="2:16">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>143</v>
       </c>
@@ -26880,7 +26881,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="55" spans="2:16">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>145</v>
       </c>
@@ -26924,7 +26925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:16">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>146</v>
       </c>
@@ -26981,12 +26982,12 @@
         <v>3.7561685891908114</v>
       </c>
     </row>
-    <row r="60" spans="2:16">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="2:16">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>6</v>
       </c>
@@ -27027,7 +27028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:16">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>139</v>
       </c>
@@ -27084,12 +27085,12 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="64" spans="2:16">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="2:16">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>6</v>
       </c>
@@ -27130,7 +27131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="2:16">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>139</v>
       </c>
@@ -27187,12 +27188,12 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="68" spans="2:16">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="2:16">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
         <v>6</v>
       </c>
@@ -27233,7 +27234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="2:16">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>138</v>
       </c>
@@ -27290,12 +27291,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="72" spans="2:16">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="2:16">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>6</v>
       </c>
@@ -27336,7 +27337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="2:16">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>138</v>
       </c>
@@ -27393,12 +27394,12 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="77" spans="2:16">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="2:16">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>149</v>
       </c>
@@ -27442,7 +27443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="2:16">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>150</v>
       </c>
@@ -27499,7 +27500,7 @@
         <v>-2552.7750000000001</v>
       </c>
     </row>
-    <row r="80" spans="2:16">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C80">
         <v>1</v>
       </c>
@@ -27556,7 +27557,7 @@
         <v>1174.5</v>
       </c>
     </row>
-    <row r="81" spans="2:16">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C81">
         <v>2</v>
       </c>
@@ -27613,7 +27614,7 @@
         <v>1174.5</v>
       </c>
     </row>
-    <row r="82" spans="2:16">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C82">
         <v>3</v>
       </c>
@@ -27670,7 +27671,7 @@
         <v>1174.5</v>
       </c>
     </row>
-    <row r="83" spans="2:16">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C83">
         <v>4</v>
       </c>
@@ -27727,7 +27728,7 @@
         <v>1174.5</v>
       </c>
     </row>
-    <row r="84" spans="2:16">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C84">
         <v>5</v>
       </c>
@@ -27784,7 +27785,7 @@
         <v>1174.5</v>
       </c>
     </row>
-    <row r="85" spans="2:16">
+    <row r="85" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>149</v>
       </c>
@@ -27841,7 +27842,7 @@
         <v>2532.1953496558967</v>
       </c>
     </row>
-    <row r="86" spans="2:16">
+    <row r="86" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>151</v>
       </c>
@@ -27898,12 +27899,12 @@
         <v>0.36187950910258171</v>
       </c>
     </row>
-    <row r="90" spans="2:16">
+    <row r="90" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="2:16">
+    <row r="91" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
         <v>149</v>
       </c>
@@ -27947,7 +27948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="2:16">
+    <row r="92" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>150</v>
       </c>
@@ -28004,7 +28005,7 @@
         <v>-4130.7</v>
       </c>
     </row>
-    <row r="93" spans="2:16">
+    <row r="93" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C93">
         <v>1</v>
       </c>
@@ -28061,7 +28062,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="94" spans="2:16">
+    <row r="94" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C94">
         <v>2</v>
       </c>
@@ -28118,7 +28119,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="95" spans="2:16">
+    <row r="95" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C95">
         <v>3</v>
       </c>
@@ -28175,7 +28176,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="96" spans="2:16">
+    <row r="96" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C96">
         <v>4</v>
       </c>
@@ -28232,7 +28233,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="97" spans="3:16">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C97">
         <v>5</v>
       </c>
@@ -28289,7 +28290,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="98" spans="3:16">
+    <row r="98" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C98">
         <v>6</v>
       </c>
@@ -28346,7 +28347,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="99" spans="3:16">
+    <row r="99" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C99">
         <v>7</v>
       </c>
@@ -28403,7 +28404,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="100" spans="3:16">
+    <row r="100" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C100">
         <v>8</v>
       </c>
@@ -28460,7 +28461,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="101" spans="3:16">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C101">
         <v>9</v>
       </c>
@@ -28517,7 +28518,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="102" spans="3:16">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C102">
         <v>10</v>
       </c>
@@ -28574,7 +28575,7 @@
         <v>1184.7</v>
       </c>
     </row>
-    <row r="103" spans="3:16">
+    <row r="103" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C103" t="s">
         <v>149</v>
       </c>
@@ -28631,7 +28632,7 @@
         <v>5017.2393706052471</v>
       </c>
     </row>
-    <row r="104" spans="3:16">
+    <row r="104" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C104" t="s">
         <v>151</v>
       </c>
@@ -28688,7 +28689,7 @@
         <v>0.25788528157737867</v>
       </c>
     </row>
-    <row r="113" spans="3:5">
+    <row r="113" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
         <v>30</v>
       </c>
@@ -28696,7 +28697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="3:5">
+    <row r="114" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C114">
         <v>0</v>
       </c>
@@ -28709,7 +28710,7 @@
         <v>0.87999999999999989</v>
       </c>
     </row>
-    <row r="115" spans="3:5">
+    <row r="115" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C115">
         <v>1</v>
       </c>
@@ -28722,7 +28723,7 @@
         <v>0.92463716756132031</v>
       </c>
     </row>
-    <row r="116" spans="3:5">
+    <row r="116" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C116">
         <v>2</v>
       </c>
@@ -28735,7 +28736,7 @@
         <v>1.0555067210423852</v>
       </c>
     </row>
-    <row r="117" spans="3:5">
+    <row r="117" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C117">
         <v>3</v>
       </c>
@@ -28748,7 +28749,7 @@
         <v>1.2636901166456225</v>
       </c>
     </row>
-    <row r="118" spans="3:5">
+    <row r="118" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C118">
         <v>4</v>
       </c>
@@ -28761,7 +28762,7 @@
         <v>1.5349999999999997</v>
       </c>
     </row>
-    <row r="119" spans="3:5">
+    <row r="119" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C119">
         <v>5</v>
       </c>
@@ -28774,7 +28775,7 @@
         <v>1.8509470509156976</v>
       </c>
     </row>
-    <row r="120" spans="3:5">
+    <row r="120" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C120">
         <v>6</v>
       </c>
@@ -28787,7 +28788,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="121" spans="3:5">
+    <row r="121" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C121">
         <v>7</v>
       </c>
@@ -28800,7 +28801,7 @@
         <v>2.5290529490843019</v>
       </c>
     </row>
-    <row r="122" spans="3:5">
+    <row r="122" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C122">
         <v>8</v>
       </c>
@@ -28813,7 +28814,7 @@
         <v>2.8449999999999998</v>
       </c>
     </row>
-    <row r="123" spans="3:5">
+    <row r="123" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C123">
         <v>9</v>
       </c>
@@ -28826,7 +28827,7 @@
         <v>3.1163098833543774</v>
       </c>
     </row>
-    <row r="124" spans="3:5">
+    <row r="124" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C124">
         <v>10</v>
       </c>
@@ -28839,7 +28840,7 @@
         <v>3.3244932789576147</v>
       </c>
     </row>
-    <row r="125" spans="3:5">
+    <row r="125" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C125">
         <v>11</v>
       </c>
@@ -28852,7 +28853,7 @@
         <v>3.4553628324386794</v>
       </c>
     </row>
-    <row r="126" spans="3:5">
+    <row r="126" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C126">
         <v>12</v>
       </c>
@@ -28865,7 +28866,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="127" spans="3:5">
+    <row r="127" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C127">
         <v>13</v>
       </c>
@@ -28878,7 +28879,7 @@
         <v>3.4553628324386798</v>
       </c>
     </row>
-    <row r="128" spans="3:5">
+    <row r="128" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C128">
         <v>14</v>
       </c>
@@ -28891,7 +28892,7 @@
         <v>3.3244932789576147</v>
       </c>
     </row>
-    <row r="129" spans="3:5">
+    <row r="129" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C129">
         <v>15</v>
       </c>
@@ -28904,7 +28905,7 @@
         <v>3.1163098833543779</v>
       </c>
     </row>
-    <row r="130" spans="3:5">
+    <row r="130" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C130">
         <v>16</v>
       </c>
@@ -28917,7 +28918,7 @@
         <v>2.8450000000000006</v>
       </c>
     </row>
-    <row r="131" spans="3:5">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C131">
         <v>17</v>
       </c>
@@ -28930,7 +28931,7 @@
         <v>2.5290529490843032</v>
       </c>
     </row>
-    <row r="132" spans="3:5">
+    <row r="132" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C132">
         <v>18</v>
       </c>
@@ -28943,7 +28944,7 @@
         <v>2.1900000000000004</v>
       </c>
     </row>
-    <row r="133" spans="3:5">
+    <row r="133" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C133">
         <v>19</v>
       </c>
@@ -28956,7 +28957,7 @@
         <v>1.8509470509156984</v>
       </c>
     </row>
-    <row r="134" spans="3:5">
+    <row r="134" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C134">
         <v>20</v>
       </c>
@@ -28969,7 +28970,7 @@
         <v>1.5350000000000008</v>
       </c>
     </row>
-    <row r="135" spans="3:5">
+    <row r="135" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C135">
         <v>21</v>
       </c>
@@ -28982,7 +28983,7 @@
         <v>1.2636901166456229</v>
       </c>
     </row>
-    <row r="136" spans="3:5">
+    <row r="136" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C136">
         <v>22</v>
       </c>
@@ -28995,7 +28996,7 @@
         <v>1.0555067210423856</v>
       </c>
     </row>
-    <row r="137" spans="3:5">
+    <row r="137" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C137">
         <v>23</v>
       </c>
@@ -29008,7 +29009,7 @@
         <v>0.92463716756132075</v>
       </c>
     </row>
-    <row r="138" spans="3:5">
+    <row r="138" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C138">
         <v>24</v>
       </c>
